--- a/VerveStacks_BRA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
+++ b/VerveStacks_BRA/SuppXLS/scen_tsparameters_ts12_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BRA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0202672A-D639-42CE-A110-B0BA91F65472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EA8657C-AFD2-4B3A-B17A-DB728C9CB1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -210,13 +210,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>S3aH3,S1aH3,S3aH2,S1aH2,S2aH3,S2aH2</t>
+    <t>S1aH3,S3aH3,S3aH2,S1aH2,S2aH3,S2aH2</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>S1aH4,S1aH1,S3aH4,S3aH1,S2aH1,S2aH4</t>
+    <t>S2aH1,S1aH4,S3aH1,S2aH4,S1aH1,S3aH4</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -819,7 +819,7 @@
       </c>
       <c r="H23" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
-        <v>S1aH4,S1aH1,S3aH4,S3aH1,S2aH1,S2aH4</v>
+        <v>S2aH1,S1aH4,S3aH1,S2aH4,S1aH1,S3aH4</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -851,7 +851,7 @@
       </c>
       <c r="H24" t="str">
         <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
-        <v>S3aH3,S1aH3,S3aH2,S1aH2,S2aH3,S2aH2</v>
+        <v>S1aH3,S3aH3,S3aH2,S1aH2,S2aH3,S2aH2</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -867,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABA787E-D01A-4577-82E0-4122B51F552C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555029A0-2B33-4702-ACB5-DCF1CAEC9A4D}">
   <dimension ref="A9:AM34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1179,7 +1179,7 @@
         <v>28</v>
       </c>
       <c r="AL12">
-        <v>0.84660555896610845</v>
+        <v>0.84660555896610834</v>
       </c>
       <c r="AM12" t="s">
         <v>64</v>
